--- a/Assets/Resources/Data/RawData/Tech.xlsx
+++ b/Assets/Resources/Data/RawData/Tech.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38508B7A-95EE-4CA6-A3C6-E2F16AB9FB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8970" yWindow="3780" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,66 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>科技ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍介绍介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +388,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>30001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/RawData/Tech.xlsx
+++ b/Assets/Resources/Data/RawData/Tech.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6527AAD1-3D3F-4F69-8CED-62B442EC355E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4770" yWindow="7080" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +24,54 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>科技ID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>科技名称</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>科技简介</t>
+  </si>
+  <si>
+    <t>Describe</t>
+  </si>
+  <si>
+    <t>前置科技树</t>
+  </si>
+  <si>
+    <t>解锁科技树1</t>
+  </si>
+  <si>
+    <t>解锁科技树2</t>
+  </si>
+  <si>
+    <t>解锁科技树3</t>
+  </si>
+  <si>
+    <t>解锁新物品1</t>
+  </si>
+  <si>
+    <t>解锁新物品2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -53,7 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +377,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>40003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>40005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>40006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>40007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>40008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>40009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>40010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>40011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>40012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>40013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>40014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>40015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>40016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>40017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>40019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>40020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>40021</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/RawData/Tech.xlsx
+++ b/Assets/Resources/Data/RawData/Tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6527AAD1-3D3F-4F69-8CED-62B442EC355E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344B17AA-D1A2-4EF9-8AD0-F8C07D66F271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="7080" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="1845" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>科技ID</t>
   </si>
@@ -61,6 +61,48 @@
   </si>
   <si>
     <t>解锁新物品2</t>
+  </si>
+  <si>
+    <t>粮食类原料生产时间-8%</t>
+  </si>
+  <si>
+    <t>加工厂的各种产品加工时间-6%</t>
+  </si>
+  <si>
+    <t>建设设施所需的金钱花费-5%</t>
+  </si>
+  <si>
+    <t>加速生产Ⅰ</t>
+  </si>
+  <si>
+    <t>高速加工Ⅰ</t>
+  </si>
+  <si>
+    <t>快速建造Ⅰ</t>
+  </si>
+  <si>
+    <t>安全生产Ⅰ</t>
+  </si>
+  <si>
+    <t>所需维护费用的建筑维护费用-4%</t>
+  </si>
+  <si>
+    <t>附加值Ⅰ</t>
+  </si>
+  <si>
+    <t>非原料类产品每单位销售价格提高3%</t>
+  </si>
+  <si>
+    <t>运输效率Ⅰ</t>
+  </si>
+  <si>
+    <t>道路建设费用-5%，生产类建筑运输成本-7%</t>
+  </si>
+  <si>
+    <t>资源规划Ⅰ</t>
+  </si>
+  <si>
+    <t>建设基础设施的材料数量花费-1</t>
   </si>
 </sst>
 </file>
@@ -381,13 +423,13 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
@@ -440,35 +482,77 @@
       <c r="A3">
         <v>40001</v>
       </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40002</v>
       </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40003</v>
       </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40004</v>
       </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40005</v>
       </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>40006</v>
       </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">

--- a/Assets/Resources/Data/RawData/Tech.xlsx
+++ b/Assets/Resources/Data/RawData/Tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344B17AA-D1A2-4EF9-8AD0-F8C07D66F271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40A7AAD-5BEC-4FC9-8FE1-7E2A91BE39B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="1845" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31965" yWindow="5865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="102">
   <si>
     <t>科技ID</t>
   </si>
@@ -63,58 +63,350 @@
     <t>解锁新物品2</t>
   </si>
   <si>
-    <t>粮食类原料生产时间-8%</t>
-  </si>
-  <si>
-    <t>加工厂的各种产品加工时间-6%</t>
-  </si>
-  <si>
-    <t>建设设施所需的金钱花费-5%</t>
-  </si>
-  <si>
-    <t>加速生产Ⅰ</t>
-  </si>
-  <si>
-    <t>高速加工Ⅰ</t>
-  </si>
-  <si>
-    <t>快速建造Ⅰ</t>
-  </si>
-  <si>
-    <t>安全生产Ⅰ</t>
-  </si>
-  <si>
-    <t>所需维护费用的建筑维护费用-4%</t>
+    <t>优秀设计Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通优化Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳固建造Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化建筑Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀设计Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通优化Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化建筑Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀设计Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳固建造Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化建筑Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通优化Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令所有基础建筑的建造费用降低5%</t>
+  </si>
+  <si>
+    <t>令所有基础建筑的建造费用降低6%</t>
+  </si>
+  <si>
+    <t>令所有基础建筑的建造费用降低10%</t>
+  </si>
+  <si>
+    <t>令所有产生维护费用的建筑维护费用降低4%</t>
+  </si>
+  <si>
+    <t>令所有产生维护费用的建筑维护费用降低9%</t>
+  </si>
+  <si>
+    <t>令所有建筑的建造时所需的原料花费降低1</t>
+  </si>
+  <si>
+    <t>令所有建筑的建造时所需的原料花费降低2</t>
+  </si>
+  <si>
+    <t>令所有建筑的建造时所需的原料花费降低3</t>
+  </si>
+  <si>
+    <t>令所有建筑的运输费用降低5%</t>
+  </si>
+  <si>
+    <t>令所有建筑的运输费用降低8%</t>
+  </si>
+  <si>
+    <t>令所有建筑的运输费用降低10%</t>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40004,40005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40008,40007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>附加值Ⅰ</t>
-  </si>
-  <si>
-    <t>非原料类产品每单位销售价格提高3%</t>
-  </si>
-  <si>
-    <t>运输效率Ⅰ</t>
-  </si>
-  <si>
-    <t>道路建设费用-5%，生产类建筑运输成本-7%</t>
-  </si>
-  <si>
-    <t>资源规划Ⅰ</t>
-  </si>
-  <si>
-    <t>建设基础设施的材料数量花费-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩大市场Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饥饿营销Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂直销Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加值Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饥饿营销Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩大市场Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加值Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂直销Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饥饿营销Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩大市场Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才管理Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学生产Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效生产Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中生产Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学生产Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才管理Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效生产Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中生产Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才管理Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学生产Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效生产Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令集市中出售的产品每单位增加2金钱</t>
+  </si>
+  <si>
+    <t>令集市中出售的产品每单位增加2金币的基础上增加2%的金钱</t>
+  </si>
+  <si>
+    <t>令集市中出售的产品每单位增加2金币的基础上增加5%的金钱</t>
+  </si>
+  <si>
+    <t>令所有仓库的存储上限提升5单位，并且在接下来的12周内，市场中出售的产品所获得的金钱量提升8%，冷却时间：30周</t>
+  </si>
+  <si>
+    <t>令所有仓库的存储上限提升9单位，并且在接下来的13周内，市场中出售的产品所获得的金钱量提升8%，冷却时间：30周</t>
+  </si>
+  <si>
+    <t>令所有仓库的存储上限提升12单位，并且在接下来的15周内，市场中出售的产品所获得的金钱量提升8%，冷却时间：30周</t>
+  </si>
+  <si>
+    <t>开局的8周内，所有商品的售价下降2%，但在之后的24周内，每周售出的产品数量额外增加10单位</t>
+  </si>
+  <si>
+    <t>开局的8周内，所有商品的售价下降2%，但在之后的24周内，每周售出的产品数量额外增加11单位</t>
+  </si>
+  <si>
+    <t>开局的8周内，所有商品的售价下降2%，但在之后的24周内，每周售出的产品数量额外增加12单位</t>
+  </si>
+  <si>
+    <t>加工厂获得集市的出售功能，影响范围为集市的一半，出售的产品价格下降15%，但每次出售的产品数量增加50%</t>
+  </si>
+  <si>
+    <t>加工厂获得集市的出售功能，影响范围为集市的一半，出售的产品价格下降20%，但每次出售的产品数量增加65%</t>
+  </si>
+  <si>
+    <t>令建筑所需劳动力下降1单位</t>
+  </si>
+  <si>
+    <t>令建筑所需劳动力下降2单位</t>
+  </si>
+  <si>
+    <t>令建筑所需劳动力下降3单位</t>
+  </si>
+  <si>
+    <t>令原料类建筑产出时间减少1周</t>
+  </si>
+  <si>
+    <t>令原料类建筑产出时间减少2周</t>
+  </si>
+  <si>
+    <t>令原料类建筑产出时间减少4周</t>
+  </si>
+  <si>
+    <t>加工厂生产的产品所需原料减少1单位，产品产出增加1单位</t>
+  </si>
+  <si>
+    <t>加工厂生产的产品所需原料减少1单位，产品产出增加2单位</t>
+  </si>
+  <si>
+    <t>加工厂生产的产品所需原料减少1单位，产品产出增加3单位</t>
+  </si>
+  <si>
+    <t>令一个工厂的一项正在生产的产品剩余生产时间减少50%，但其间会停止该工厂其他产品的生产</t>
+  </si>
+  <si>
+    <t>令一个工厂一项正在生产的产品剩余生产时间减少50%，并且产量增加20%，但其间会停止该工厂其他产品的生产</t>
+  </si>
+  <si>
+    <t>40013,40015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40028,40029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -138,8 +430,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,25 +713,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="38.125" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,16 +742,16 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" t="s">
@@ -467,7 +761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -478,154 +772,969 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>40001</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>40003</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>40002</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40004</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40003</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40005</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40004</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40006</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>40005</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>40003</v>
+      </c>
+      <c r="E7" s="1">
+        <v>40006</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>40006</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>40007</v>
+      </c>
+      <c r="F8" s="1">
+        <v>40008</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>40007</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
+        <v>40009</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>40008</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1">
+        <v>40009</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>40009</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1">
+        <v>40010</v>
+      </c>
+      <c r="F11" s="1">
+        <v>40011</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>40010</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>40011</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>40012</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1">
+        <v>40015</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>40013</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1">
+        <v>40014</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40014</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="1">
+        <v>40016</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>40015</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1">
+        <v>40014</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>40016</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="1">
+        <v>40017</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>40017</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="1">
+        <v>40018</v>
+      </c>
+      <c r="F19" s="1">
+        <v>40019</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>40018</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>40019</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>40020</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>40021</v>
       </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>40022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>40023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>40024</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>40025</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>40026</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>40027</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>40028</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>40029</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>40030</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="1">
+        <v>40033</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>40031</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>40032</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>40033</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F36"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/RawData/Tech.xlsx
+++ b/Assets/Resources/Data/RawData/Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDFCF95-7FB4-42B3-9214-A0C521EB0A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260D25A2-18D5-49B6-81A7-F069BB0E550A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -835,30 +835,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>40012</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>40001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1">
-        <v>40015</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>40002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>40003</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
@@ -867,22 +867,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>40016</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>40002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40001</v>
       </c>
       <c r="F4" s="1">
-        <v>40017</v>
+        <v>40004</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
@@ -890,7 +890,7 @@
       <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
       <c r="J4" t="s">
@@ -899,22 +899,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>40019</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>40003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>40005</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
@@ -922,7 +922,7 @@
       <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
@@ -931,22 +931,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>40025</v>
+        <v>40004</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>40006</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -954,7 +954,7 @@
       <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
@@ -963,22 +963,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>40029</v>
+        <v>40005</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>40003</v>
+      </c>
+      <c r="F7" s="1">
+        <v>40006</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
@@ -986,7 +986,7 @@
       <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
@@ -995,30 +995,30 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>40033</v>
+        <v>40006</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="1">
+        <v>40007</v>
+      </c>
+      <c r="G8" s="1">
+        <v>40008</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>13</v>
       </c>
       <c r="J8" t="s">
@@ -1027,22 +1027,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>40015</v>
+        <v>40007</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
-        <v>40014</v>
+        <v>40009</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -1050,7 +1050,7 @@
       <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
@@ -1059,30 +1059,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>40020</v>
+        <v>40008</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
+        <v>40009</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>13</v>
       </c>
       <c r="J10" t="s">
@@ -1091,30 +1091,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>40014</v>
+        <v>40009</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1">
-        <v>40016</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>40010</v>
+      </c>
+      <c r="G11" s="1">
+        <v>40011</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
@@ -1123,30 +1123,30 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>40017</v>
+        <v>40010</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="1">
-        <v>40018</v>
-      </c>
-      <c r="G12" s="1">
-        <v>40019</v>
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>13</v>
       </c>
       <c r="J12" t="s">
@@ -1155,19 +1155,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>40021</v>
+        <v>40011</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
@@ -1178,7 +1178,7 @@
       <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="J13" t="s">
@@ -1187,22 +1187,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>40026</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
+        <v>40012</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>72</v>
+        <v>13</v>
+      </c>
+      <c r="F14" s="1">
+        <v>40015</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
@@ -1219,28 +1219,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>40030</v>
+        <v>40013</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>84</v>
+        <v>13</v>
+      </c>
+      <c r="F15" s="1">
+        <v>40014</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="1">
-        <v>40033</v>
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>13</v>
@@ -1251,22 +1251,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>40002</v>
+        <v>40014</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>40001</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F16" s="1">
-        <v>40004</v>
+        <v>40016</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
@@ -1274,7 +1274,7 @@
       <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J16" t="s">
@@ -1283,30 +1283,30 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>40006</v>
+        <v>40015</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1">
-        <v>40007</v>
-      </c>
-      <c r="G17" s="1">
-        <v>40008</v>
+        <v>40014</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J17" t="s">
@@ -1315,22 +1315,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>40011</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
+        <v>40016</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="F18" s="1">
+        <v>40017</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
@@ -1338,7 +1338,7 @@
       <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J18" t="s">
@@ -1347,25 +1347,25 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>40024</v>
+        <v>40017</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="F19" s="1">
+        <v>40018</v>
+      </c>
+      <c r="G19" s="1">
+        <v>40019</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>13</v>
@@ -1379,22 +1379,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>40027</v>
+        <v>40018</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -1411,19 +1411,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>40032</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
+        <v>40019</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
@@ -1443,25 +1443,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>40013</v>
+        <v>40020</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1">
-        <v>40014</v>
+        <v>54</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>13</v>
@@ -1475,22 +1475,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>40018</v>
+        <v>40021</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>13</v>
@@ -1571,22 +1571,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>40028</v>
+        <v>40024</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -1603,22 +1603,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>40031</v>
+        <v>40025</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>13</v>
@@ -1635,22 +1635,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>40003</v>
+        <v>40026</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>40001</v>
-      </c>
-      <c r="F28" s="1">
-        <v>40005</v>
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>13</v>
@@ -1658,7 +1658,7 @@
       <c r="H28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J28" t="s">
@@ -1667,30 +1667,30 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>40009</v>
+        <v>40027</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="1">
-        <v>40010</v>
-      </c>
-      <c r="G29" s="1">
-        <v>40011</v>
+        <v>62</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J29" t="s">
@@ -1699,22 +1699,22 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>40004</v>
+        <v>40028</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>40002</v>
-      </c>
-      <c r="F30" s="1">
-        <v>40006</v>
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>13</v>
@@ -1722,7 +1722,7 @@
       <c r="H30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J30" t="s">
@@ -1731,22 +1731,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>40007</v>
+        <v>40029</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="1">
-        <v>40009</v>
+        <v>69</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>13</v>
@@ -1754,7 +1754,7 @@
       <c r="H31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J31" t="s">
@@ -1763,30 +1763,30 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>40010</v>
+        <v>40030</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="1">
+        <v>40033</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J32" t="s">
@@ -1795,30 +1795,30 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>40001</v>
+        <v>40031</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="1">
-        <v>40002</v>
-      </c>
-      <c r="G33" s="1">
-        <v>40003</v>
+        <v>78</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J33" t="s">
@@ -1827,22 +1827,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>40005</v>
+        <v>40032</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>40003</v>
-      </c>
-      <c r="F34" s="1">
-        <v>40006</v>
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -1850,7 +1850,7 @@
       <c r="H34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J34" t="s">
@@ -1859,22 +1859,22 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>40008</v>
+        <v>40033</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="1">
-        <v>40009</v>
+        <v>78</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -1882,7 +1882,7 @@
       <c r="H35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J35" t="s">
@@ -1891,7 +1891,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J35">
-    <sortCondition ref="B3:B35"/>
+    <sortCondition ref="A3:A35"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
